--- a/world-height-temperature-country-table-20160805/world-height-temperature-country-table-20160805.xlsx
+++ b/world-height-temperature-country-table-20160805/world-height-temperature-country-table-20160805.xlsx
@@ -17,31 +17,16 @@
     <t>key</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>country</t>
-  </si>
-  <si>
-    <t>headline</t>
   </si>
   <si>
     <t>temperature</t>
   </si>
   <si>
-    <t>Heat vs. Height</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
-    <t>subhed</t>
-  </si>
-  <si>
     <t>region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare countries' &lt;strong&gt;average male height&lt;/strong&gt; and &lt;strong&gt;average annual temperature&lt;/strong&gt;. Sort the table by country name, population, income category or region. </t>
   </si>
   <si>
     <t>income</t>
@@ -50,13 +35,34 @@
     <t>population</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Eastern Mediterranean</t>
+  </si>
+  <si>
+    <t>Low-income</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>Heat vs. Height</t>
+  </si>
+  <si>
+    <t>subhed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare countries' &lt;strong&gt;average male height&lt;/strong&gt; and &lt;strong&gt;average annual temperature&lt;/strong&gt;. Sort the table by country name, population, income category or region. </t>
+  </si>
+  <si>
     <t>footnote</t>
   </si>
   <si>
     <t xml:space="preserve">Some countries excluded when consistent height and temperature data were not available. </t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
   </si>
   <si>
     <t>source</t>
@@ -71,25 +77,43 @@
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Eastern Mediterranean</t>
-  </si>
-  <si>
-    <t>Low-income</t>
-  </si>
-  <si>
     <t>hdr_country</t>
   </si>
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>hdr_height</t>
   </si>
   <si>
     <t>Male Height (Cm)</t>
+  </si>
+  <si>
+    <t>hdr_temperature</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>hdr_population</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>hdr_region</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>hdr_income</t>
+  </si>
+  <si>
+    <t>Wealth</t>
+  </si>
+  <si>
+    <t>Albania</t>
   </si>
   <si>
     <t>Europe</t>
@@ -104,40 +128,16 @@
     <t>Africa</t>
   </si>
   <si>
-    <t>hdr_temperature</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
-    <t>hdr_population</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>Argentina</t>
-  </si>
-  <si>
-    <t>hdr_region</t>
-  </si>
-  <si>
-    <t>Region</t>
   </si>
   <si>
     <t>Americas</t>
   </si>
   <si>
     <t>High-income</t>
-  </si>
-  <si>
-    <t>hdr_income</t>
-  </si>
-  <si>
-    <t>Wealth</t>
   </si>
   <si>
     <t>Armenia</t>
@@ -657,11 +657,11 @@
       <sz val="10.0"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <b/>
+      <sz val="10.0"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
+      <sz val="14.0"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -686,75 +686,70 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
@@ -768,15 +763,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,508 +789,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-    </row>
-    <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="28.71"/>
-    <col customWidth="1" min="2" max="2" width="12.14"/>
-    <col customWidth="1" min="3" max="3" width="6.71"/>
-    <col customWidth="1" min="4" max="4" width="19.86"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="12.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -1309,22 +811,521 @@
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2" ht="33.0" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="3" ht="33.0" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" ht="33.0" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" ht="33.0" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+    </row>
+    <row r="6" ht="33.0" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="7" ht="33.0" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8" ht="33.0" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" ht="33.0" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" ht="33.0" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" ht="33.0" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" ht="33.0" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" ht="33.0" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" ht="33.0" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" ht="33.0" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.71"/>
+    <col customWidth="1" min="2" max="2" width="12.14"/>
+    <col customWidth="1" min="3" max="3" width="6.71"/>
+    <col customWidth="1" min="4" max="4" width="19.86"/>
+    <col customWidth="1" min="5" max="5" width="18.71"/>
+    <col customWidth="1" min="6" max="6" width="12.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7">
         <v>12.92</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="8">
         <v>165.26</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>20</v>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="15">
         <v>2.84E7</v>
@@ -1347,20 +1348,20 @@
       <c r="V2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7">
         <v>11.27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>173.39</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>27</v>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F3" s="15">
         <v>3639453.0</v>
@@ -1383,20 +1384,20 @@
       <c r="V3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7">
         <v>22.58</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>170.07</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>27</v>
+      <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F4" s="15">
         <v>3.4178188E7</v>
@@ -1419,20 +1420,20 @@
       <c r="V4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="7">
         <v>21.51</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>167.31</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>27</v>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="15">
         <v>1.2799293E7</v>
@@ -1455,20 +1456,20 @@
       <c r="V5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>35</v>
+      <c r="A6" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="17">
         <v>14.22</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>174.62</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>39</v>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="15">
         <v>4.0913584E7</v>
@@ -1491,19 +1492,19 @@
       <c r="V6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>6.37</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>172.0</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="15">
@@ -1527,20 +1528,20 @@
       <c r="V7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="17">
         <v>21.51</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="8">
         <v>179.2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>39</v>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F8" s="15">
         <v>2.1262641E7</v>
@@ -1563,20 +1564,20 @@
       <c r="V8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="17">
         <v>6.19</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="8">
         <v>177.41</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>39</v>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F9" s="15">
         <v>8210281.0</v>
@@ -1599,20 +1600,20 @@
       <c r="V9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <v>12.22</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="8">
         <v>169.75</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>27</v>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="15">
         <v>8238672.0</v>
@@ -1635,20 +1636,20 @@
       <c r="V10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="7">
         <v>25.06</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="8">
         <v>172.75</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>39</v>
+      <c r="D11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="15">
         <v>309156.0</v>
@@ -1671,19 +1672,19 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="7">
         <v>25.47</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="8">
         <v>163.81</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="15">
@@ -1707,20 +1708,20 @@
       <c r="V12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="17">
         <v>6.29</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="8">
         <v>178.44</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>27</v>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="15">
         <v>9648533.0</v>
@@ -1743,20 +1744,20 @@
       <c r="V13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="18">
         <v>9.51</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="8">
         <v>181.7</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>39</v>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="15">
         <v>1.0414336E7</v>
@@ -1779,20 +1780,20 @@
       <c r="V14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <v>25.06</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="8">
         <v>168.73</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>27</v>
+      <c r="D15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="15">
         <v>307899.0</v>
@@ -1815,20 +1816,20 @@
       <c r="V15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <v>27.46</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="8">
         <v>167.06</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>20</v>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F16" s="15">
         <v>8791832.0</v>
@@ -1851,19 +1852,19 @@
       <c r="V16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="7">
         <v>8.58</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="8">
         <v>165.31</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="15">
@@ -1887,19 +1888,19 @@
       <c r="V17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="7">
         <v>20.98</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="8">
         <v>166.85</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="15">
@@ -1923,20 +1924,20 @@
       <c r="V18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="17">
         <v>9.02</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="8">
         <v>180.87</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>27</v>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F19" s="15">
         <v>4613414.0</v>
@@ -1959,20 +1960,20 @@
       <c r="V19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="7">
         <v>21.48</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="8">
         <v>171.63</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>27</v>
+      <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F20" s="15">
         <v>1990876.0</v>
@@ -1995,20 +1996,20 @@
       <c r="V20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="17">
         <v>24.92</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="8">
         <v>173.55</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>27</v>
+      <c r="D21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F21" s="15">
         <v>1.98739269E8</v>
@@ -2031,20 +2032,20 @@
       <c r="V21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="7">
         <v>25.93</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="8">
         <v>165.01</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>39</v>
+      <c r="E22" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F22" s="15">
         <v>388190.0</v>
@@ -2067,20 +2068,20 @@
       <c r="V22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="17">
         <v>10.4</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="8">
         <v>178.24</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>27</v>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F23" s="15">
         <v>7204687.0</v>
@@ -2103,20 +2104,20 @@
       <c r="V23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="7">
         <v>28.18</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="8">
         <v>169.33</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>20</v>
+      <c r="D24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F24" s="15">
         <v>1.5746232E7</v>
@@ -2139,20 +2140,20 @@
       <c r="V24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="7">
         <v>20.27</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="8">
         <v>166.64</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>20</v>
+      <c r="D25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F25" s="15">
         <v>8988091.0</v>
@@ -2175,20 +2176,20 @@
       <c r="V25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="7">
         <v>26.94</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="8">
         <v>163.33</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>20</v>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F26" s="15">
         <v>1.4494293E7</v>
@@ -2211,19 +2212,19 @@
       <c r="V26" s="16"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="7">
         <v>24.53</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="8">
         <v>167.82</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="15">
@@ -2247,20 +2248,20 @@
       <c r="V27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="17">
         <v>-7.14</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="8">
         <v>178.09</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>39</v>
+      <c r="D28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F28" s="15">
         <v>3.3487208E7</v>
@@ -2283,20 +2284,20 @@
       <c r="V28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="7">
         <v>24.84</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="8">
         <v>166.67</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>20</v>
+      <c r="D29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="15">
         <v>4511488.0</v>
@@ -2319,20 +2320,20 @@
       <c r="V29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="7">
         <v>26.65</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="8">
         <v>170.44</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>20</v>
+      <c r="D30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F30" s="15">
         <v>1.0329208E7</v>
@@ -2355,20 +2356,20 @@
       <c r="V30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="7">
         <v>8.37</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="8">
         <v>171.81</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>39</v>
+      <c r="D31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F31" s="15">
         <v>1.6601707E7</v>
@@ -2391,20 +2392,20 @@
       <c r="V31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="7">
         <v>6.33</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="8">
         <v>171.83</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>27</v>
+      <c r="E32" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F32" s="15">
         <v>1.33861297E9</v>
@@ -2427,20 +2428,20 @@
       <c r="V32" s="16"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="7">
         <v>24.4</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="8">
         <v>169.5</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>27</v>
+      <c r="D33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F33" s="15">
         <v>4.5644023E7</v>
@@ -2463,20 +2464,20 @@
       <c r="V33" s="16"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="7">
         <v>23.99</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="8">
         <v>166.19</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>20</v>
+      <c r="D34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F34" s="15">
         <v>734917.0</v>
@@ -2499,20 +2500,20 @@
       <c r="V34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="7">
         <v>23.85</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="8">
         <v>168.93</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>27</v>
+      <c r="D35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F35" s="15">
         <v>4253877.0</v>
@@ -2535,19 +2536,19 @@
       <c r="V35" s="16"/>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="7">
         <v>26.3</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="8">
         <v>166.53</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="15">
@@ -2571,20 +2572,20 @@
       <c r="V36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B37" s="17">
         <v>10.47</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="8">
         <v>180.78</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>39</v>
+      <c r="D37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F37" s="15">
         <v>4489409.0</v>
@@ -2607,20 +2608,20 @@
       <c r="V37" s="16"/>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="7">
         <v>25.13</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="8">
         <v>172.0</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>27</v>
+      <c r="D38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F38" s="15">
         <v>1.1451652E7</v>
@@ -2643,20 +2644,20 @@
       <c r="V38" s="16"/>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="17">
         <v>18.71</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="8">
         <v>174.99</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>39</v>
+      <c r="D39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F39" s="15">
         <v>531640.0</v>
@@ -2679,20 +2680,20 @@
       <c r="V39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="17">
         <v>7.67</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="8">
         <v>180.1</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>39</v>
+      <c r="D40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F40" s="15">
         <v>1.0211904E7</v>
@@ -2715,20 +2716,20 @@
       <c r="V40" s="16"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="7">
         <v>24.04</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="8">
         <v>166.8</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>20</v>
+      <c r="D41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F41" s="15">
         <v>6.8692542E7</v>
@@ -2751,20 +2752,20 @@
       <c r="V41" s="16"/>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="17">
         <v>7.82</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="8">
         <v>181.39</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>39</v>
+      <c r="D42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F42" s="15">
         <v>5500510.0</v>
@@ -2787,19 +2788,19 @@
       <c r="V42" s="16"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="7">
         <v>27.64</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="8">
         <v>166.57</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="11" t="s">
+      <c r="D43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="15">
@@ -2823,20 +2824,20 @@
       <c r="V43" s="16"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="7">
         <v>23.93</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="8">
         <v>172.75</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>27</v>
+      <c r="D44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F44" s="15">
         <v>9650054.0</v>
@@ -2859,20 +2860,20 @@
       <c r="V44" s="16"/>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="7">
         <v>21.33</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="8">
         <v>167.08</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>27</v>
+      <c r="D45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F45" s="15">
         <v>1.4573101E7</v>
@@ -2895,19 +2896,19 @@
       <c r="V45" s="16"/>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="7">
         <v>22.12</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="8">
         <v>166.68</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="D46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="15">
@@ -2931,19 +2932,19 @@
       <c r="V46" s="16"/>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="7">
         <v>24.77</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="8">
         <v>169.77</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="D47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F47" s="15">
@@ -2967,20 +2968,20 @@
       <c r="V47" s="16"/>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="7">
         <v>24.13</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="8">
         <v>167.36</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>39</v>
+      <c r="D48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F48" s="15">
         <v>650702.0</v>
@@ -3003,20 +3004,20 @@
       <c r="V48" s="16"/>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="7">
         <v>26.07</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="8">
         <v>168.36</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>20</v>
+      <c r="D49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F49" s="15">
         <v>5647168.0</v>
@@ -3039,20 +3040,20 @@
       <c r="V49" s="16"/>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B50" s="17">
         <v>5.03</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="8">
         <v>181.59</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>39</v>
+      <c r="D50" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F50" s="15">
         <v>1299371.0</v>
@@ -3075,20 +3076,20 @@
       <c r="V50" s="16"/>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="7">
         <v>22.37</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="8">
         <v>166.23</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>20</v>
+      <c r="D51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F51" s="15">
         <v>8.5237338E7</v>
@@ -3111,20 +3112,20 @@
       <c r="V51" s="16"/>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B52" s="17">
         <v>23.37</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="8">
         <v>173.9</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>27</v>
+      <c r="E52" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F52" s="15">
         <v>944720.0</v>
@@ -3147,20 +3148,20 @@
       <c r="V52" s="16"/>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B53" s="17">
         <v>1.35</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="8">
         <v>179.59</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>39</v>
+      <c r="D53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F53" s="15">
         <v>5250275.0</v>
@@ -3183,20 +3184,20 @@
       <c r="V53" s="16"/>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="17">
         <v>10.54</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="8">
         <v>179.74</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>39</v>
+      <c r="D54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F54" s="15">
         <v>6.4057792E7</v>
@@ -3219,20 +3220,20 @@
       <c r="V54" s="16"/>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="7">
         <v>25.0</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="8">
         <v>167.94</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>27</v>
+      <c r="D55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F55" s="15">
         <v>1514993.0</v>
@@ -3255,20 +3256,20 @@
       <c r="V55" s="16"/>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="7">
         <v>26.77</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="8">
         <v>165.4</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>20</v>
+      <c r="D56" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F56" s="15">
         <v>1782893.0</v>
@@ -3291,19 +3292,19 @@
       <c r="V56" s="16"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B57" s="17">
         <v>7.36</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="8">
         <v>174.34</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="11" t="s">
+      <c r="D57" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F57" s="15">
@@ -3327,20 +3328,20 @@
       <c r="V57" s="16"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B58" s="18">
         <v>8.5</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="8">
         <v>179.88</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>39</v>
+      <c r="D58" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F58" s="15">
         <v>8.2329758E7</v>
@@ -3363,19 +3364,19 @@
       <c r="V58" s="16"/>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="7">
         <v>27.25</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="8">
         <v>168.85</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="11" t="s">
+      <c r="D59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F59" s="15">
@@ -3399,20 +3400,20 @@
       <c r="V59" s="16"/>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B60" s="17">
         <v>13.66</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="8">
         <v>177.32</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>39</v>
+      <c r="D60" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F60" s="15">
         <v>1.0737428E7</v>
@@ -3435,19 +3436,19 @@
       <c r="V60" s="16"/>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="7">
         <v>23.07</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="8">
         <v>163.41</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="11" t="s">
+      <c r="D61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F61" s="15">
@@ -3471,20 +3472,20 @@
       <c r="V61" s="16"/>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="7">
         <v>25.55</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="8">
         <v>167.54</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>20</v>
+      <c r="D62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F62" s="15">
         <v>1.0057975E7</v>
@@ -3507,20 +3508,20 @@
       <c r="V62" s="16"/>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="7">
         <v>26.61</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="8">
         <v>167.9</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>20</v>
+      <c r="D63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F63" s="15">
         <v>1533964.0</v>
@@ -3543,19 +3544,19 @@
       <c r="V63" s="16"/>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="7">
         <v>25.8</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="8">
         <v>170.21</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="11" t="s">
+      <c r="D64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F64" s="15">
@@ -3579,20 +3580,20 @@
       <c r="V64" s="16"/>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="7">
         <v>24.48</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="8">
         <v>172.64</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>20</v>
+      <c r="D65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F65" s="15">
         <v>9035536.0</v>
@@ -3615,19 +3616,19 @@
       <c r="V65" s="16"/>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="7">
         <v>23.39</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="8">
         <v>166.39</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="11" t="s">
+      <c r="D66" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F66" s="15">
@@ -3651,20 +3652,20 @@
       <c r="V66" s="16"/>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B67" s="17">
         <v>10.06</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="8">
         <v>177.26</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>39</v>
+      <c r="D67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F67" s="15">
         <v>9905596.0</v>
@@ -3687,20 +3688,20 @@
       <c r="V67" s="16"/>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B68" s="17">
         <v>1.35</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="8">
         <v>180.49</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>39</v>
+      <c r="D68" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F68" s="15">
         <v>306694.0</v>
@@ -3723,19 +3724,19 @@
       <c r="V68" s="16"/>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="7">
         <v>23.95</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="8">
         <v>164.95</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F69" s="15">
@@ -3759,19 +3760,19 @@
       <c r="V69" s="16"/>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="7">
         <v>25.72</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="8">
         <v>163.55</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F70" s="15">
@@ -3795,20 +3796,20 @@
       <c r="V70" s="16"/>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B71" s="17">
         <v>16.93</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="8">
         <v>173.57</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>27</v>
+      <c r="D71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F71" s="15">
         <v>6.6429284E7</v>
@@ -3831,20 +3832,20 @@
       <c r="V71" s="16"/>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="7">
         <v>21.58</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="8">
         <v>170.43</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>27</v>
+      <c r="D72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F72" s="15">
         <v>3.1129225E7</v>
@@ -3867,20 +3868,20 @@
       <c r="V72" s="16"/>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B73" s="18">
         <v>9.11</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="8">
         <v>178.93</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>39</v>
+      <c r="D73" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F73" s="15">
         <v>4203200.0</v>
@@ -3903,20 +3904,20 @@
       <c r="V73" s="16"/>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B74" s="17">
         <v>19.7</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="8">
         <v>176.86</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>39</v>
+      <c r="D74" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F74" s="15">
         <v>7233701.0</v>
@@ -3939,20 +3940,20 @@
       <c r="V74" s="16"/>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B75" s="17">
         <v>11.5</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="8">
         <v>177.77</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>39</v>
+      <c r="D75" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F75" s="15">
         <v>5.8126212E7</v>
@@ -3975,20 +3976,20 @@
       <c r="V75" s="16"/>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B76" s="17">
         <v>24.47</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="8">
         <v>174.53</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>27</v>
+      <c r="D76" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F76" s="15">
         <v>2825928.0</v>
@@ -4011,20 +4012,20 @@
       <c r="V76" s="16"/>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="7">
         <v>10.36</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="8">
         <v>170.82</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="11" t="s">
-        <v>39</v>
+      <c r="E77" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F77" s="15">
         <v>1.27078679E8</v>
@@ -4047,20 +4048,20 @@
       <c r="V77" s="16"/>
     </row>
     <row r="78">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="7">
         <v>18.35</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="8">
         <v>171.03</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>27</v>
+      <c r="D78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F78" s="15">
         <v>6342948.0</v>
@@ -4083,20 +4084,20 @@
       <c r="V78" s="16"/>
     </row>
     <row r="79">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="7">
         <v>5.99</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="8">
         <v>171.14</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>27</v>
+      <c r="D79" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F79" s="15">
         <v>1.5399437E7</v>
@@ -4119,19 +4120,19 @@
       <c r="V79" s="16"/>
     </row>
     <row r="80">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="7">
         <v>24.5</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="8">
         <v>169.64</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E80" s="11" t="s">
+      <c r="D80" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F80" s="15">
@@ -4155,20 +4156,20 @@
       <c r="V80" s="16"/>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="7">
         <v>25.15</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="8">
         <v>172.07</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>39</v>
+      <c r="D81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F81" s="15">
         <v>2691158.0</v>
@@ -4191,19 +4192,19 @@
       <c r="V81" s="16"/>
     </row>
     <row r="82">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="7">
         <v>1.09</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="8">
         <v>171.24</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="11" t="s">
+      <c r="D82" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F82" s="15">
@@ -4227,19 +4228,19 @@
       <c r="V82" s="16"/>
     </row>
     <row r="83">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="7">
         <v>23.22</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="8">
         <v>160.52</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F83" s="15">
@@ -4263,20 +4264,20 @@
       <c r="V83" s="16"/>
     </row>
     <row r="84">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B84" s="17">
         <v>5.63</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="8">
         <v>181.42</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>39</v>
+      <c r="D84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F84" s="15">
         <v>2231503.0</v>
@@ -4299,20 +4300,20 @@
       <c r="V84" s="16"/>
     </row>
     <row r="85">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B85" s="17">
         <v>15.61</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="8">
         <v>174.39</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>27</v>
+      <c r="D85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F85" s="15">
         <v>4017095.0</v>
@@ -4335,19 +4336,19 @@
       <c r="V85" s="16"/>
     </row>
     <row r="86">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="7">
         <v>11.97</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="8">
         <v>165.59</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="11" t="s">
+      <c r="D86" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F86" s="15">
@@ -4371,20 +4372,20 @@
       <c r="V86" s="16"/>
     </row>
     <row r="87">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="7">
         <v>25.25</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="8">
         <v>163.66</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>20</v>
+      <c r="D87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F87" s="15">
         <v>3441790.0</v>
@@ -4407,20 +4408,20 @@
       <c r="V87" s="16"/>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B88" s="17">
         <v>21.9</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="8">
         <v>173.53</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>27</v>
+      <c r="D88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F88" s="15">
         <v>6310434.0</v>
@@ -4443,20 +4444,20 @@
       <c r="V88" s="16"/>
     </row>
     <row r="89">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B89" s="17">
         <v>6.24</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="8">
         <v>179.03</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>39</v>
+      <c r="D89" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F89" s="15">
         <v>3555179.0</v>
@@ -4479,20 +4480,20 @@
       <c r="V89" s="16"/>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B90" s="17">
         <v>8.88</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="8">
         <v>177.86</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>39</v>
+      <c r="D90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F90" s="15">
         <v>491775.0</v>
@@ -4515,20 +4516,20 @@
       <c r="V90" s="16"/>
     </row>
     <row r="91">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B91" s="17">
         <v>9.85</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="8">
         <v>178.33</v>
       </c>
-      <c r="D91" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>27</v>
+      <c r="D91" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F91" s="15">
         <v>2066718.0</v>
@@ -4551,20 +4552,20 @@
       <c r="V91" s="16"/>
     </row>
     <row r="92">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="7">
         <v>22.01</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="8">
         <v>161.55</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>20</v>
+      <c r="D92" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F92" s="15">
         <v>2.0653556E7</v>
@@ -4587,20 +4588,20 @@
       <c r="V92" s="16"/>
     </row>
     <row r="93">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="7">
         <v>21.98</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="8">
         <v>162.23</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>20</v>
+      <c r="D93" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F93" s="15">
         <v>1.4268711E7</v>
@@ -4623,20 +4624,20 @@
       <c r="V93" s="16"/>
     </row>
     <row r="94">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="7">
         <v>25.14</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="8">
         <v>167.88</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>27</v>
+      <c r="E94" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F94" s="15">
         <v>2.5715819E7</v>
@@ -4659,20 +4660,20 @@
       <c r="V94" s="16"/>
     </row>
     <row r="95">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="7">
         <v>28.3</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="8">
         <v>171.12</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>20</v>
+      <c r="D95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F95" s="15">
         <v>1.2666987E7</v>
@@ -4695,19 +4696,19 @@
       <c r="V95" s="16"/>
     </row>
     <row r="96">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="12">
+      <c r="B96" s="7">
         <v>27.69</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="8">
         <v>163.28</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="11" t="s">
+      <c r="D96" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F96" s="15">
@@ -4731,20 +4732,20 @@
       <c r="V96" s="16"/>
     </row>
     <row r="97">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="7">
         <v>23.13</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="8">
         <v>170.5</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>27</v>
+      <c r="D97" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F97" s="15">
         <v>1296000.0</v>
@@ -4767,20 +4768,20 @@
       <c r="V97" s="16"/>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="7">
         <v>20.54</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="8">
         <v>169.01</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>27</v>
+      <c r="D98" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F98" s="15">
         <v>1.11211789E8</v>
@@ -4803,19 +4804,19 @@
       <c r="V98" s="16"/>
     </row>
     <row r="99">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B99" s="17">
         <v>9.67</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="8">
         <v>175.49</v>
       </c>
-      <c r="D99" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E99" s="11" t="s">
+      <c r="D99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F99" s="15">
@@ -4839,20 +4840,20 @@
       <c r="V99" s="16"/>
     </row>
     <row r="100">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="7">
         <v>-0.5</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="8">
         <v>169.07</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>27</v>
+      <c r="E100" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F100" s="15">
         <v>3041142.0</v>
@@ -4875,19 +4876,19 @@
       <c r="V100" s="16"/>
     </row>
     <row r="101">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="7">
         <v>17.23</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="8">
         <v>170.4</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="11" t="s">
+      <c r="D101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F101" s="15">
@@ -4911,20 +4912,20 @@
       <c r="V101" s="16"/>
     </row>
     <row r="102">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="7">
         <v>23.69</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="8">
         <v>164.8</v>
       </c>
-      <c r="D102" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>20</v>
+      <c r="D102" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F102" s="15">
         <v>2.1669278E7</v>
@@ -4947,19 +4948,19 @@
       <c r="V102" s="16"/>
     </row>
     <row r="103">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="7">
         <v>22.96</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="8">
         <v>164.67</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F103" s="15">
@@ -4983,20 +4984,20 @@
       <c r="V103" s="16"/>
     </row>
     <row r="104">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B104" s="12">
+      <c r="B104" s="7">
         <v>20.04</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="8">
         <v>166.96</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>27</v>
+      <c r="D104" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F104" s="15">
         <v>2108665.0</v>
@@ -5019,20 +5020,20 @@
       <c r="V104" s="16"/>
     </row>
     <row r="105">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B105" s="12">
+      <c r="B105" s="7">
         <v>12.74</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="8">
         <v>162.32</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>20</v>
+      <c r="E105" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F105" s="15">
         <v>2.8563377E7</v>
@@ -5055,20 +5056,20 @@
       <c r="V105" s="16"/>
     </row>
     <row r="106">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B106" s="17">
         <v>9.2</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="8">
         <v>182.54</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>39</v>
+      <c r="D106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F106" s="15">
         <v>1.6715999E7</v>
@@ -5091,20 +5092,20 @@
       <c r="V106" s="16"/>
     </row>
     <row r="107">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B107" s="18">
         <v>9.98</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="8">
         <v>177.74</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="11" t="s">
-        <v>39</v>
+      <c r="E107" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F107" s="15">
         <v>4213418.0</v>
@@ -5127,19 +5128,19 @@
       <c r="V107" s="16"/>
     </row>
     <row r="108">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="7">
         <v>24.59</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="8">
         <v>166.71</v>
       </c>
-      <c r="D108" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="11" t="s">
+      <c r="D108" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F108" s="15">
@@ -5163,20 +5164,20 @@
       <c r="V108" s="16"/>
     </row>
     <row r="109">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="7">
         <v>27.24</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="8">
         <v>167.68</v>
       </c>
-      <c r="D109" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>20</v>
+      <c r="D109" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F109" s="15">
         <v>1.5306252E7</v>
@@ -5199,19 +5200,19 @@
       <c r="V109" s="16"/>
     </row>
     <row r="110">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="7">
         <v>26.78</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="8">
         <v>165.91</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E110" s="11" t="s">
+      <c r="D110" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F110" s="15">
@@ -5235,20 +5236,20 @@
       <c r="V110" s="16"/>
     </row>
     <row r="111">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="7">
         <v>4.86</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="8">
         <v>171.99</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E111" s="11" t="s">
-        <v>20</v>
+      <c r="E111" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F111" s="15">
         <v>2.2665345E7</v>
@@ -5271,20 +5272,20 @@
       <c r="V111" s="16"/>
     </row>
     <row r="112">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B112" s="17">
         <v>0.75</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="8">
         <v>179.75</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>39</v>
+      <c r="D112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F112" s="15">
         <v>4676305.0</v>
@@ -5307,20 +5308,20 @@
       <c r="V112" s="16"/>
     </row>
     <row r="113">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="7">
         <v>25.45</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="8">
         <v>169.16</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>39</v>
+      <c r="D113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F113" s="15">
         <v>3418085.0</v>
@@ -5343,19 +5344,19 @@
       <c r="V113" s="16"/>
     </row>
     <row r="114">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="7">
         <v>19.98</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="8">
         <v>166.95</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="11" t="s">
+      <c r="D114" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F114" s="15">
@@ -5379,20 +5380,20 @@
       <c r="V114" s="16"/>
     </row>
     <row r="115">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="7">
         <v>24.72</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="8">
         <v>168.49</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>27</v>
+      <c r="D115" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F115" s="15">
         <v>3360474.0</v>
@@ -5415,19 +5416,19 @@
       <c r="V115" s="16"/>
     </row>
     <row r="116">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="7">
         <v>25.05</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="8">
         <v>163.57</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F116" s="15">
@@ -5451,20 +5452,20 @@
       <c r="V116" s="16"/>
     </row>
     <row r="117">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="7">
         <v>23.48</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="8">
         <v>172.83</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>27</v>
+      <c r="D117" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F117" s="15">
         <v>6995655.0</v>
@@ -5487,20 +5488,20 @@
       <c r="V117" s="16"/>
     </row>
     <row r="118">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="7">
         <v>19.46</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="8">
         <v>165.23</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>27</v>
+      <c r="D118" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F118" s="15">
         <v>2.9546963E7</v>
@@ -5523,19 +5524,19 @@
       <c r="V118" s="16"/>
     </row>
     <row r="119">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="7">
         <v>25.33</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="8">
         <v>163.23</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F119" s="15">
@@ -5559,20 +5560,20 @@
       <c r="V119" s="16"/>
     </row>
     <row r="120">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B120" s="17">
         <v>7.87</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="8">
         <v>177.33</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>39</v>
+      <c r="D120" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F120" s="15">
         <v>3.8482919E7</v>
@@ -5595,20 +5596,20 @@
       <c r="V120" s="16"/>
     </row>
     <row r="121">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="7">
         <v>14.97</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="8">
         <v>172.93</v>
       </c>
-      <c r="D121" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>39</v>
+      <c r="D121" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F121" s="15">
         <v>1.0707924E7</v>
@@ -5631,20 +5632,20 @@
       <c r="V121" s="16"/>
     </row>
     <row r="122">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="7">
         <v>24.28</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C122" s="8">
         <v>172.08</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>39</v>
+      <c r="D122" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F122" s="15">
         <v>3971020.0</v>
@@ -5667,20 +5668,20 @@
       <c r="V122" s="16"/>
     </row>
     <row r="123">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="7">
         <v>26.92</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="8">
         <v>170.48</v>
       </c>
-      <c r="D123" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>39</v>
+      <c r="D123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F123" s="15">
         <v>833285.0</v>
@@ -5703,19 +5704,19 @@
       <c r="V123" s="16"/>
     </row>
     <row r="124">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="7">
         <v>24.52</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="8">
         <v>167.45</v>
       </c>
-      <c r="D124" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E124" s="11" t="s">
+      <c r="D124" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F124" s="15">
@@ -5739,20 +5740,20 @@
       <c r="V124" s="16"/>
     </row>
     <row r="125">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B125" s="17">
         <v>8.81</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="8">
         <v>174.74</v>
       </c>
-      <c r="D125" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>27</v>
+      <c r="D125" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F125" s="15">
         <v>2.2215421E7</v>
@@ -5775,20 +5776,20 @@
       <c r="V125" s="16"/>
     </row>
     <row r="126">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B126" s="18">
         <v>-6.32</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="8">
         <v>176.46</v>
       </c>
-      <c r="D126" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>39</v>
+      <c r="D126" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F126" s="15">
         <v>1.40041247E8</v>
@@ -5811,20 +5812,20 @@
       <c r="V126" s="16"/>
     </row>
     <row r="127">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="7">
         <v>19.01</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="8">
         <v>162.68</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>20</v>
+      <c r="D127" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F127" s="15">
         <v>1.0473282E7</v>
@@ -5847,20 +5848,20 @@
       <c r="V127" s="16"/>
     </row>
     <row r="128">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="7">
         <v>26.82</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="8">
         <v>172.78</v>
       </c>
-      <c r="D128" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>27</v>
+      <c r="D128" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F128" s="15">
         <v>109000.0</v>
@@ -5883,20 +5884,20 @@
       <c r="V128" s="16"/>
     </row>
     <row r="129">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="7">
         <v>24.65</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="8">
         <v>167.67</v>
       </c>
-      <c r="D129" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>39</v>
+      <c r="D129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F129" s="15">
         <v>2.8686633E7</v>
@@ -5919,19 +5920,19 @@
       <c r="V129" s="16"/>
     </row>
     <row r="130">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="7">
         <v>27.87</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C130" s="8">
         <v>173.14</v>
       </c>
-      <c r="D130" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E130" s="11" t="s">
+      <c r="D130" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F130" s="15">
@@ -5955,20 +5956,20 @@
       <c r="V130" s="16"/>
     </row>
     <row r="131">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B131" s="17">
         <v>10.18</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="8">
         <v>180.57</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>27</v>
+      <c r="D131" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F131" s="15">
         <v>7379339.0</v>
@@ -5991,20 +5992,20 @@
       <c r="V131" s="16"/>
     </row>
     <row r="132">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="7">
         <v>26.04</v>
       </c>
-      <c r="C132" s="13">
+      <c r="C132" s="8">
         <v>164.41</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>20</v>
+      <c r="D132" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F132" s="15">
         <v>6440053.0</v>
@@ -6027,20 +6028,20 @@
       <c r="V132" s="16"/>
     </row>
     <row r="133">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B133" s="17">
         <v>7.27</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="8">
         <v>179.5</v>
       </c>
-      <c r="D133" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>39</v>
+      <c r="D133" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F133" s="15">
         <v>5410000.0</v>
@@ -6063,20 +6064,20 @@
       <c r="V133" s="16"/>
     </row>
     <row r="134">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B134" s="17">
         <v>8.04</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C134" s="8">
         <v>179.8</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>39</v>
+      <c r="D134" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F134" s="15">
         <v>2005692.0</v>
@@ -6099,19 +6100,19 @@
       <c r="V134" s="16"/>
     </row>
     <row r="135">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B135" s="12">
+      <c r="B135" s="7">
         <v>25.68</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="8">
         <v>164.14</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F135" s="15">
@@ -6135,20 +6136,20 @@
       <c r="V135" s="16"/>
     </row>
     <row r="136">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B136" s="7">
         <v>26.77</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="8">
         <v>166.6</v>
       </c>
-      <c r="D136" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>20</v>
+      <c r="D136" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F136" s="15">
         <v>9832017.0</v>
@@ -6171,20 +6172,20 @@
       <c r="V136" s="16"/>
     </row>
     <row r="137">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="7">
         <v>17.6</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="8">
         <v>166.68</v>
       </c>
-      <c r="D137" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>27</v>
+      <c r="D137" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F137" s="15">
         <v>4.9052489E7</v>
@@ -6207,20 +6208,20 @@
       <c r="V137" s="16"/>
     </row>
     <row r="138">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B138" s="17">
         <v>10.66</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="8">
         <v>174.92</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E138" s="11" t="s">
-        <v>39</v>
+      <c r="E138" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F138" s="15">
         <v>4.8508972E7</v>
@@ -6243,20 +6244,20 @@
       <c r="V138" s="16"/>
     </row>
     <row r="139">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="6" t="s">
         <v>177</v>
       </c>
       <c r="B139" s="17">
         <v>13.03</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="8">
         <v>176.59</v>
       </c>
-      <c r="D139" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>39</v>
+      <c r="D139" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F139" s="15">
         <v>4.0525002E7</v>
@@ -6279,19 +6280,19 @@
       <c r="V139" s="16"/>
     </row>
     <row r="140">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B140" s="12">
+      <c r="B140" s="7">
         <v>26.76</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="8">
         <v>165.69</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F140" s="15">
@@ -6315,19 +6316,19 @@
       <c r="V140" s="16"/>
     </row>
     <row r="141">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B141" s="12">
+      <c r="B141" s="7">
         <v>26.82</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="8">
         <v>166.63</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141" s="11" t="s">
+      <c r="D141" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F141" s="15">
@@ -6351,20 +6352,20 @@
       <c r="V141" s="16"/>
     </row>
     <row r="142">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B142" s="12">
+      <c r="B142" s="7">
         <v>25.77</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="8">
         <v>172.72</v>
       </c>
-      <c r="D142" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>27</v>
+      <c r="D142" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F142" s="15">
         <v>481267.0</v>
@@ -6387,19 +6388,19 @@
       <c r="V142" s="16"/>
     </row>
     <row r="143">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B143" s="12">
+      <c r="B143" s="7">
         <v>20.41</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="8">
         <v>168.13</v>
       </c>
-      <c r="D143" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="11" t="s">
+      <c r="D143" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F143" s="15">
@@ -6423,20 +6424,20 @@
       <c r="V143" s="16"/>
     </row>
     <row r="144">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B144" s="17">
         <v>1.55</v>
       </c>
-      <c r="C144" s="13">
+      <c r="C144" s="8">
         <v>179.74</v>
       </c>
-      <c r="D144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>39</v>
+      <c r="D144" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F144" s="15">
         <v>9059651.0</v>
@@ -6459,20 +6460,20 @@
       <c r="V144" s="16"/>
     </row>
     <row r="145">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B145" s="17">
         <v>4.75</v>
       </c>
-      <c r="C145" s="13">
+      <c r="C145" s="8">
         <v>178.42</v>
       </c>
-      <c r="D145" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>39</v>
+      <c r="D145" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F145" s="15">
         <v>7604467.0</v>
@@ -6495,19 +6496,19 @@
       <c r="V145" s="16"/>
     </row>
     <row r="146">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B146" s="12">
+      <c r="B146" s="7">
         <v>17.65</v>
       </c>
-      <c r="C146" s="13">
+      <c r="C146" s="8">
         <v>170.43</v>
       </c>
-      <c r="D146" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="11" t="s">
+      <c r="D146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F146" s="15">
@@ -6531,19 +6532,19 @@
       <c r="V146" s="16"/>
     </row>
     <row r="147">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B147" s="12">
+      <c r="B147" s="7">
         <v>3.03</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="8">
         <v>171.26</v>
       </c>
-      <c r="D147" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E147" s="11" t="s">
+      <c r="D147" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F147" s="15">
@@ -6567,20 +6568,20 @@
       <c r="V147" s="16"/>
     </row>
     <row r="148">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B148" s="12">
+      <c r="B148" s="7">
         <v>22.31</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="8">
         <v>164.8</v>
       </c>
-      <c r="D148" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>20</v>
+      <c r="D148" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F148" s="15">
         <v>4.1048532E7</v>
@@ -6603,20 +6604,20 @@
       <c r="V148" s="16"/>
     </row>
     <row r="149">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B149" s="12">
+      <c r="B149" s="7">
         <v>26.25</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="8">
         <v>169.16</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E149" s="11" t="s">
-        <v>27</v>
+      <c r="E149" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F149" s="15">
         <v>6.590541E7</v>
@@ -6639,19 +6640,19 @@
       <c r="V149" s="16"/>
     </row>
     <row r="150">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="7">
         <v>24.97</v>
       </c>
-      <c r="C150" s="13">
+      <c r="C150" s="8">
         <v>159.79</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F150" s="15">
@@ -6675,20 +6676,20 @@
       <c r="V150" s="16"/>
     </row>
     <row r="151">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="7">
         <v>26.8</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="8">
         <v>168.33</v>
       </c>
-      <c r="D151" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>20</v>
+      <c r="D151" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F151" s="15">
         <v>6019877.0</v>
@@ -6711,20 +6712,20 @@
       <c r="V151" s="16"/>
     </row>
     <row r="152">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="6" t="s">
         <v>190</v>
       </c>
       <c r="B152" s="17">
         <v>25.86</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="8">
         <v>173.74</v>
       </c>
-      <c r="D152" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>39</v>
+      <c r="D152" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F152" s="15">
         <v>1310000.0</v>
@@ -6747,20 +6748,20 @@
       <c r="V152" s="16"/>
     </row>
     <row r="153">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="6" t="s">
         <v>191</v>
       </c>
       <c r="B153" s="17">
         <v>19.36</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="8">
         <v>173.95</v>
       </c>
-      <c r="D153" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>27</v>
+      <c r="D153" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F153" s="15">
         <v>1.0486339E7</v>
@@ -6783,20 +6784,20 @@
       <c r="V153" s="16"/>
     </row>
     <row r="154">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B154" s="18">
         <v>10.93</v>
       </c>
-      <c r="C154" s="13">
+      <c r="C154" s="8">
         <v>174.21</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>27</v>
+      <c r="D154" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F154" s="15">
         <v>7.6805524E7</v>
@@ -6819,20 +6820,20 @@
       <c r="V154" s="16"/>
     </row>
     <row r="155">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B155" s="12">
+      <c r="B155" s="7">
         <v>15.22</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="8">
         <v>171.97</v>
       </c>
-      <c r="D155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>27</v>
+      <c r="D155" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F155" s="15">
         <v>4884887.0</v>
@@ -6855,20 +6856,20 @@
       <c r="V155" s="16"/>
     </row>
     <row r="156">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B156" s="12">
+      <c r="B156" s="7">
         <v>22.6</v>
       </c>
-      <c r="C156" s="13">
+      <c r="C156" s="8">
         <v>165.62</v>
       </c>
-      <c r="D156" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>20</v>
+      <c r="D156" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F156" s="15">
         <v>3.2369558E7</v>
@@ -6891,19 +6892,19 @@
       <c r="V156" s="16"/>
     </row>
     <row r="157">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B157" s="17">
         <v>8.21</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="8">
         <v>178.46</v>
       </c>
-      <c r="D157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E157" s="11" t="s">
+      <c r="D157" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F157" s="15">
@@ -6927,20 +6928,20 @@
       <c r="V157" s="16"/>
     </row>
     <row r="158">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="7">
         <v>26.83</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="8">
         <v>170.46</v>
       </c>
-      <c r="D158" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>39</v>
+      <c r="D158" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F158" s="15">
         <v>4798491.0</v>
@@ -6963,20 +6964,20 @@
       <c r="V158" s="16"/>
     </row>
     <row r="159">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B159" s="17">
         <v>8.31</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="8">
         <v>177.49</v>
       </c>
-      <c r="D159" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>39</v>
+      <c r="D159" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F159" s="15">
         <v>6.2262E7</v>
@@ -6999,20 +7000,20 @@
       <c r="V159" s="16"/>
     </row>
     <row r="160">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B160" s="17">
         <v>17.57</v>
       </c>
-      <c r="C160" s="13">
+      <c r="C160" s="8">
         <v>173.43</v>
       </c>
-      <c r="D160" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>39</v>
+      <c r="D160" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F160" s="15">
         <v>3494382.0</v>
@@ -7035,20 +7036,20 @@
       <c r="V160" s="16"/>
     </row>
     <row r="161">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="6" t="s">
         <v>199</v>
       </c>
       <c r="B161" s="17">
         <v>6.75</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="8">
         <v>177.13</v>
       </c>
-      <c r="D161" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>39</v>
+      <c r="D161" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F161" s="15">
         <v>3.13973E8</v>
@@ -7071,19 +7072,19 @@
       <c r="V161" s="16"/>
     </row>
     <row r="162">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="7">
         <v>12.52</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="8">
         <v>169.38</v>
       </c>
-      <c r="D162" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E162" s="11" t="s">
+      <c r="D162" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F162" s="15">
@@ -7107,19 +7108,19 @@
       <c r="V162" s="16"/>
     </row>
     <row r="163">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B163" s="12">
+      <c r="B163" s="7">
         <v>23.84</v>
       </c>
-      <c r="C163" s="13">
+      <c r="C163" s="8">
         <v>168.09</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F163" s="15">
@@ -7143,20 +7144,20 @@
       <c r="V163" s="16"/>
     </row>
     <row r="164">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B164" s="12">
+      <c r="B164" s="7">
         <v>25.32</v>
       </c>
-      <c r="C164" s="13">
+      <c r="C164" s="8">
         <v>171.59</v>
       </c>
-      <c r="D164" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>39</v>
+      <c r="D164" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F164" s="15">
         <v>2.6814843E7</v>
@@ -7179,19 +7180,19 @@
       <c r="V164" s="16"/>
     </row>
     <row r="165">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="7">
         <v>24.07</v>
       </c>
-      <c r="C165" s="13">
+      <c r="C165" s="8">
         <v>164.45</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="E165" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F165" s="15">
@@ -7215,19 +7216,19 @@
       <c r="V165" s="16"/>
     </row>
     <row r="166">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B166" s="12">
+      <c r="B166" s="7">
         <v>23.16</v>
       </c>
-      <c r="C166" s="13">
+      <c r="C166" s="8">
         <v>159.89</v>
       </c>
-      <c r="D166" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E166" s="11" t="s">
+      <c r="D166" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F166" s="15">
@@ -7251,19 +7252,19 @@
       <c r="V166" s="16"/>
     </row>
     <row r="167">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B167" s="12">
+      <c r="B167" s="7">
         <v>21.58</v>
       </c>
-      <c r="C167" s="13">
+      <c r="C167" s="8">
         <v>166.52</v>
       </c>
-      <c r="D167" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="11" t="s">
+      <c r="D167" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E167" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F167" s="15">
@@ -7287,20 +7288,20 @@
       <c r="V167" s="16"/>
     </row>
     <row r="168">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B168" s="12">
+      <c r="B168" s="7">
         <v>21.03</v>
       </c>
-      <c r="C168" s="13">
+      <c r="C168" s="8">
         <v>168.59</v>
       </c>
-      <c r="D168" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>20</v>
+      <c r="D168" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F168" s="15">
         <v>1.26196E7</v>
